--- a/KJLTVX/Status_Robo.xlsx
+++ b/KJLTVX/Status_Robo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E7219F-B7DF-4AE3-99C0-667C457F5ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A12AFEA-4FDC-441F-A240-D089C6441FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="643" firstSheet="2" activeTab="4" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" firstSheet="1" activeTab="4" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
   </bookViews>
   <sheets>
     <sheet name="VASC LTVR" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="OBSEVACIONES LTVR" sheetId="4" r:id="rId3"/>
     <sheet name="VASC LTVL" sheetId="5" r:id="rId4"/>
     <sheet name="A33-35 LTVL" sheetId="6" r:id="rId5"/>
-    <sheet name="OBSEVACIONES LTVL" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="82">
   <si>
     <t>1120R01</t>
   </si>
@@ -215,9 +214,6 @@
     <t xml:space="preserve">UP21 PUNTOS DE SOLDADURA ERRORES DE SINTAXIS </t>
   </si>
   <si>
-    <t>UP22 SIN TC ONLINE P7</t>
-  </si>
-  <si>
     <t>UP23</t>
   </si>
   <si>
@@ -279,6 +275,15 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>sequencia invertida 3 ultimos pontos</t>
+  </si>
+  <si>
+    <t>1340R01</t>
+  </si>
+  <si>
+    <t>1350R01</t>
   </si>
 </sst>
 </file>
@@ -399,7 +404,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="61">
     <dxf>
       <font>
         <b/>
@@ -506,117 +511,6 @@
           <fgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1009,110 +903,86 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}" name="Tabela1" displayName="Tabela1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}" name="Tabela1" displayName="Tabela1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="A1:F21" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{37ECE432-7CA2-48E4-BC6A-5B2B49B3D1BC}" name="ARG" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{E6F5144E-C22B-454B-902D-C4FD0AC342B8}" name="ROBO" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{981FD75A-BE63-4427-9C8A-94E64AF6DF35}" name="PROGS" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{1190B228-C243-4A53-8C64-BF83CD52381D}" name="IO_SET" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{03CA3001-5626-45D7-A33B-FA07A35A8FB1}" name="MAKRO v" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{6FDE055E-E2B3-4815-A2C5-AF712D2A5056}" name="OBSERVAÇÃO EPLAN" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{37ECE432-7CA2-48E4-BC6A-5B2B49B3D1BC}" name="ARG" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{E6F5144E-C22B-454B-902D-C4FD0AC342B8}" name="ROBO" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{981FD75A-BE63-4427-9C8A-94E64AF6DF35}" name="PROGS" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{1190B228-C243-4A53-8C64-BF83CD52381D}" name="IO_SET" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{03CA3001-5626-45D7-A33B-FA07A35A8FB1}" name="MAKRO v" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{6FDE055E-E2B3-4815-A2C5-AF712D2A5056}" name="OBSERVAÇÃO EPLAN" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF3A4A7F-3117-442A-8E79-34DDB75C5F1B}" name="Tabela14" displayName="Tabela14" ref="A1:G21" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF3A4A7F-3117-442A-8E79-34DDB75C5F1B}" name="Tabela14" displayName="Tabela14" ref="A1:G21" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:G21" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5F55735B-C01E-41BA-9BD1-9650622D1C79}" name="ARG" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{A16874D2-DB50-410E-80DE-953BC5F9FC9B}" name="ROBO" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{9458DFB9-B371-4C60-B4C9-C20211D2FC99}" name="SEQ" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{758588EA-4714-49C6-9A3F-F785D5D42FF9}" name="NOME" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{EFA1AAE5-0EDE-4A1F-BF62-6FA99E079EC2}" name="PAYLOAD" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{2E4E679D-67E0-43EE-AD73-E6AEE0CD58CA}" name="INDEX" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{DC507381-E362-4734-8CE5-A26FE4192F97}" name="OBSERVAÇÕES" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{5F55735B-C01E-41BA-9BD1-9650622D1C79}" name="ARG" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{A16874D2-DB50-410E-80DE-953BC5F9FC9B}" name="ROBO" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{9458DFB9-B371-4C60-B4C9-C20211D2FC99}" name="SEQ" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{758588EA-4714-49C6-9A3F-F785D5D42FF9}" name="NOME" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{EFA1AAE5-0EDE-4A1F-BF62-6FA99E079EC2}" name="PAYLOAD" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{2E4E679D-67E0-43EE-AD73-E6AEE0CD58CA}" name="INDEX" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{DC507381-E362-4734-8CE5-A26FE4192F97}" name="OBSERVAÇÕES" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1DB91509-A703-4ED1-8FAE-372FE9707ABA}" name="Tabela5" displayName="Tabela5" ref="A1:O21" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1DB91509-A703-4ED1-8FAE-372FE9707ABA}" name="Tabela5" displayName="Tabela5" ref="A1:O21" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:O21" xr:uid="{1DB91509-A703-4ED1-8FAE-372FE9707ABA}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{F89FAF2D-1742-4283-A705-02FFC26C08D2}" name="ARG" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{9515765D-BE38-48F3-BA53-4879631C61B7}" name="ROBO" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{2FF8C322-7367-4E03-960C-A253C8911DFA}" name="INICIAL" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{BEC1921C-8AF8-4211-9E08-5F51D12113D3}" name="PRIMERA" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{B65DF93B-6A15-4B1F-B4C3-C0D0E962FD73}" name="%" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{3382FD9A-867E-4E47-B4E6-96E40255287D}" name="OBSERVACIONES" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{4CA051D4-0C3D-4EB7-9BDC-94F544F9E150}" name="OBSERVACIONES2" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{BB46B00C-B62C-44EB-AA29-92281DF2701C}" name="OBSERVACIONES3" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{427DBD74-D2F7-46F7-8C26-BDC25D91C8ED}" name="OBSERVACIONES4" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{55892806-F285-4F8D-8DC4-5C9369E1EE52}" name="SEGUNDA" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{B68FF5A2-8F1D-489F-93FC-7D4030C15D17}" name="%5" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{06A67C1D-1165-4F36-BB64-27F7173F2A7B}" name="OBSERVACIONES6" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{41FCF87E-F634-4720-A5E9-E8340155B0F6}" name="TERCERA" dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{4741441D-9444-4FD7-B614-776B8727EB09}" name="%7" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{09830119-E3B5-4F05-AFC3-30D7C74B3303}" name="OBSERVACIONES8" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{F89FAF2D-1742-4283-A705-02FFC26C08D2}" name="ARG" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{9515765D-BE38-48F3-BA53-4879631C61B7}" name="ROBO" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{2FF8C322-7367-4E03-960C-A253C8911DFA}" name="INICIAL" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{BEC1921C-8AF8-4211-9E08-5F51D12113D3}" name="PRIMERA" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{B65DF93B-6A15-4B1F-B4C3-C0D0E962FD73}" name="%" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{3382FD9A-867E-4E47-B4E6-96E40255287D}" name="OBSERVACIONES" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{4CA051D4-0C3D-4EB7-9BDC-94F544F9E150}" name="OBSERVACIONES2" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{BB46B00C-B62C-44EB-AA29-92281DF2701C}" name="OBSERVACIONES3" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{427DBD74-D2F7-46F7-8C26-BDC25D91C8ED}" name="OBSERVACIONES4" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{55892806-F285-4F8D-8DC4-5C9369E1EE52}" name="SEGUNDA" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{B68FF5A2-8F1D-489F-93FC-7D4030C15D17}" name="%5" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{06A67C1D-1165-4F36-BB64-27F7173F2A7B}" name="OBSERVACIONES6" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{41FCF87E-F634-4720-A5E9-E8340155B0F6}" name="TERCERA" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{4741441D-9444-4FD7-B614-776B8727EB09}" name="%7" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{09830119-E3B5-4F05-AFC3-30D7C74B3303}" name="OBSERVACIONES8" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{962935FE-2BCA-4BDF-885B-A30BEC2DF7FF}" name="Tabela13" displayName="Tabela13" ref="A1:F21" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{962935FE-2BCA-4BDF-885B-A30BEC2DF7FF}" name="Tabela13" displayName="Tabela13" ref="A1:F21" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:F21" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6483B7B3-C4E3-4DA3-81DC-F0AADCA0971B}" name="ARG" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{F0C5C9D0-1359-4A6B-A0D6-B0B17B18A64C}" name="ROBO" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{63499F91-9960-496D-BD1F-D884AFE3AFF6}" name="PROGS" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{039A1B84-621F-4C0A-9A75-215694024FEF}" name="IO_SET" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{41026203-D5D9-4881-BF1C-5F8D5DAE219A}" name="MAKRO v" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{E9A37624-3D0B-42AF-8B59-896118404B07}" name="OBSERVAÇÃO EPLAN" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{6483B7B3-C4E3-4DA3-81DC-F0AADCA0971B}" name="ARG" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{F0C5C9D0-1359-4A6B-A0D6-B0B17B18A64C}" name="ROBO" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{63499F91-9960-496D-BD1F-D884AFE3AFF6}" name="PROGS" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{039A1B84-621F-4C0A-9A75-215694024FEF}" name="IO_SET" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{41026203-D5D9-4881-BF1C-5F8D5DAE219A}" name="MAKRO v" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{E9A37624-3D0B-42AF-8B59-896118404B07}" name="OBSERVAÇÃO EPLAN" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC208A4-DB55-4509-B12C-426DFF42D923}" name="Tabela145" displayName="Tabela145" ref="A1:G21" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:G21" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC208A4-DB55-4509-B12C-426DFF42D923}" name="Tabela145" displayName="Tabela145" ref="A1:G23" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:G23" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{03240E0D-589F-4E49-A598-5CD966A1D22B}" name="ARG" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{7C97B5A9-350F-4C17-AE26-C78A42874E55}" name="ROBO" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{0E4DEC60-4BEA-46C1-B15D-792783C4EF82}" name="SEQ" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{9D73E8A5-41FC-4A58-98B4-803647D0CC84}" name="NOME" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{077AA374-F285-4D67-9C12-3431D47C1605}" name="PAYLOAD" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{CDE73FB8-5B7E-40BF-9408-32A9CB1909B5}" name="INDEX" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{CB04086A-B00C-4FE0-B635-F933597168BE}" name="OBSERVAÇÕES" dataDxfId="27"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0F37CE58-8D1D-4F42-81E4-14F295F08772}" name="Tabela6" displayName="Tabela6" ref="A1:O21" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:O21" xr:uid="{0F37CE58-8D1D-4F42-81E4-14F295F08772}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{01DE2B94-4D01-4E28-98C8-E3E7CF3F972B}" name="ARG" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{689203CF-E560-4390-B28D-465B412FBB2A}" name="ROBO" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{FCF46263-7B76-46C5-B9B9-5D1A74046879}" name="INICIAL" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{1872BFEB-C296-448E-A7E2-AAFF7CD2BC93}" name="PRIMERA" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{77BC1AF0-7A7D-420B-A3BE-5912F621D919}" name="%" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{0AD7B76E-87F0-4F34-9874-4BDEE2DF06B9}" name="OBSERVACIONES" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{E181AA1F-858D-4452-83CA-50FB8D3B0751}" name="OBSERVACIONES2" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{6850D2EA-08DF-4D0D-8948-49A2E7C8BD73}" name="OBSERVACIONES3" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{C9E8C775-DB8D-4E55-9103-D93ED4A182F9}" name="OBSERVACIONES4" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{21BE019E-12B0-4AB8-8D9C-F2A3844E396E}" name="SEGUNDA" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{3DD1CF64-D1B1-4C41-92E9-E157CEC95C2B}" name="%5" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{73A6436E-C19F-44DD-8607-2487788389A9}" name="OBSERVACIONES6" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{2E90381B-FF5C-49E7-AC99-9D2BFF7D1B0D}" name="TERCERA" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{308E0F41-430A-4DC7-A2F3-BAFF0F0D4FE7}" name="%7" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{6461CBC9-20E3-4CD8-8333-3EFAFC075775}" name="OBSERVACIONES8" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{03240E0D-589F-4E49-A598-5CD966A1D22B}" name="ARG" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{7C97B5A9-350F-4C17-AE26-C78A42874E55}" name="ROBO" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{0E4DEC60-4BEA-46C1-B15D-792783C4EF82}" name="SEQ" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{9D73E8A5-41FC-4A58-98B4-803647D0CC84}" name="NOME" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{077AA374-F285-4D67-9C12-3431D47C1605}" name="PAYLOAD" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{CDE73FB8-5B7E-40BF-9408-32A9CB1909B5}" name="INDEX" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{CB04086A-B00C-4FE0-B635-F933597168BE}" name="OBSERVAÇÕES" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1418,8 +1288,8 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1888,7 +1758,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>40</v>
@@ -1940,7 +1810,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2176,7 +2046,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2218,7 +2088,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2325,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A96693-D7AB-452A-9BD0-CDB963ECFEE0}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="B13" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2365,31 +2235,31 @@
         <v>50</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>51</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2505,10 +2375,10 @@
         <v>0.61</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -2613,10 +2483,10 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -2643,7 +2513,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2749,7 +2619,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>54</v>
@@ -2779,10 +2649,10 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -2809,10 +2679,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -2839,16 +2709,16 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -2873,7 +2743,7 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -2901,13 +2771,13 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="8"/>
@@ -2933,10 +2803,10 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -2987,8 +2857,8 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3028,7 +2898,9 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -3100,7 +2972,9 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -3112,7 +2986,9 @@
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -3124,7 +3000,9 @@
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
@@ -3136,7 +3014,9 @@
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -3148,7 +3028,9 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
@@ -3280,11 +3162,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198C43F8-B65B-4687-93F5-7F1509493D86}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3312,7 +3194,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>40</v>
@@ -3334,7 +3216,9 @@
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
@@ -3353,9 +3237,11 @@
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -3372,7 +3258,9 @@
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3391,7 +3279,9 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
@@ -3410,7 +3300,9 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3429,7 +3321,9 @@
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
@@ -3448,7 +3342,9 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
@@ -3462,14 +3358,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -3478,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -3486,7 +3384,9 @@
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
@@ -3497,7 +3397,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -3505,7 +3405,9 @@
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
@@ -3516,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -3524,7 +3426,9 @@
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
@@ -3535,64 +3439,106 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3600,12 +3546,20 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3613,12 +3567,20 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3626,12 +3588,20 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3639,21 +3609,63 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F21">
+  <conditionalFormatting sqref="B2:F23">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:F21">
+  <conditionalFormatting sqref="C2:F23">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -3667,586 +3679,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541CC6CE-7C54-4F85-BB78-0B0BCEEB266C}">
-  <dimension ref="A1:P21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21" style="11" customWidth="1"/>
-    <col min="7" max="9" width="22.33203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.69</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/KJLTVX/Status_Robo.xlsx
+++ b/KJLTVX/Status_Robo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Desktop\Nova pasta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\VASC\KJLTVX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A12AFEA-4FDC-441F-A240-D089C6441FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD8693D-72AB-4AF6-9BF3-45400AEE90E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" firstSheet="1" activeTab="4" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" firstSheet="1" activeTab="3" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
   </bookViews>
   <sheets>
     <sheet name="VASC LTVR" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="82">
   <si>
     <t>1120R01</t>
   </si>
@@ -1731,7 +1731,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2195,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A96693-D7AB-452A-9BD0-CDB963ECFEE0}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A15" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2856,9 +2856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69781F33-9E6B-4734-B4C4-5473A1EC001A}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2912,7 +2912,9 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -2924,7 +2926,9 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
@@ -2936,7 +2940,9 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -2948,7 +2954,9 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -2960,7 +2968,9 @@
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -2973,7 +2983,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2987,7 +2997,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3001,7 +3011,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3015,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3028,9 +3038,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
@@ -3164,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198C43F8-B65B-4687-93F5-7F1509493D86}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/KJLTVX/Status_Robo.xlsx
+++ b/KJLTVX/Status_Robo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\VASC\KJLTVX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD8693D-72AB-4AF6-9BF3-45400AEE90E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4707E2B-1254-419A-8792-0EFC272CE9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" firstSheet="1" activeTab="3" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
   </bookViews>
@@ -2857,7 +2857,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/KJLTVX/Status_Robo.xlsx
+++ b/KJLTVX/Status_Robo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\VASC\KJLTVX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4707E2B-1254-419A-8792-0EFC272CE9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED52BC4-6E56-4ABE-B4D3-E4CD1F164A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" firstSheet="1" activeTab="3" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="643" activeTab="3" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
   </bookViews>
   <sheets>
     <sheet name="VASC LTVR" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="OBSEVACIONES LTVR" sheetId="4" r:id="rId3"/>
     <sheet name="VASC LTVL" sheetId="5" r:id="rId4"/>
     <sheet name="A33-35 LTVL" sheetId="6" r:id="rId5"/>
+    <sheet name="OBSEVACIONES LTVL" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="82">
   <si>
     <t>1120R01</t>
   </si>
@@ -404,7 +406,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="78">
     <dxf>
       <font>
         <b/>
@@ -513,15 +515,55 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -546,41 +588,15 @@
     <dxf>
       <font>
         <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -589,112 +605,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <font>
+        <b/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -719,6 +659,179 @@
     <dxf>
       <font>
         <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -903,86 +1016,110 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}" name="Tabela1" displayName="Tabela1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}" name="Tabela1" displayName="Tabela1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A1:F21" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{37ECE432-7CA2-48E4-BC6A-5B2B49B3D1BC}" name="ARG" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{E6F5144E-C22B-454B-902D-C4FD0AC342B8}" name="ROBO" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{981FD75A-BE63-4427-9C8A-94E64AF6DF35}" name="PROGS" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{1190B228-C243-4A53-8C64-BF83CD52381D}" name="IO_SET" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{03CA3001-5626-45D7-A33B-FA07A35A8FB1}" name="MAKRO v" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{6FDE055E-E2B3-4815-A2C5-AF712D2A5056}" name="OBSERVAÇÃO EPLAN" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{37ECE432-7CA2-48E4-BC6A-5B2B49B3D1BC}" name="ARG" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{E6F5144E-C22B-454B-902D-C4FD0AC342B8}" name="ROBO" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{981FD75A-BE63-4427-9C8A-94E64AF6DF35}" name="PROGS" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{1190B228-C243-4A53-8C64-BF83CD52381D}" name="IO_SET" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{03CA3001-5626-45D7-A33B-FA07A35A8FB1}" name="MAKRO v" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{6FDE055E-E2B3-4815-A2C5-AF712D2A5056}" name="OBSERVAÇÃO EPLAN" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF3A4A7F-3117-442A-8E79-34DDB75C5F1B}" name="Tabela14" displayName="Tabela14" ref="A1:G21" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF3A4A7F-3117-442A-8E79-34DDB75C5F1B}" name="Tabela14" displayName="Tabela14" ref="A1:G21" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="A1:G21" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5F55735B-C01E-41BA-9BD1-9650622D1C79}" name="ARG" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{A16874D2-DB50-410E-80DE-953BC5F9FC9B}" name="ROBO" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{9458DFB9-B371-4C60-B4C9-C20211D2FC99}" name="SEQ" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{758588EA-4714-49C6-9A3F-F785D5D42FF9}" name="NOME" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{EFA1AAE5-0EDE-4A1F-BF62-6FA99E079EC2}" name="PAYLOAD" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{2E4E679D-67E0-43EE-AD73-E6AEE0CD58CA}" name="INDEX" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{DC507381-E362-4734-8CE5-A26FE4192F97}" name="OBSERVAÇÕES" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{5F55735B-C01E-41BA-9BD1-9650622D1C79}" name="ARG" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{A16874D2-DB50-410E-80DE-953BC5F9FC9B}" name="ROBO" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{9458DFB9-B371-4C60-B4C9-C20211D2FC99}" name="SEQ" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{758588EA-4714-49C6-9A3F-F785D5D42FF9}" name="NOME" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{EFA1AAE5-0EDE-4A1F-BF62-6FA99E079EC2}" name="PAYLOAD" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{2E4E679D-67E0-43EE-AD73-E6AEE0CD58CA}" name="INDEX" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{DC507381-E362-4734-8CE5-A26FE4192F97}" name="OBSERVAÇÕES" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1DB91509-A703-4ED1-8FAE-372FE9707ABA}" name="Tabela5" displayName="Tabela5" ref="A1:O21" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1DB91509-A703-4ED1-8FAE-372FE9707ABA}" name="Tabela5" displayName="Tabela5" ref="A1:O21" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="A1:O21" xr:uid="{1DB91509-A703-4ED1-8FAE-372FE9707ABA}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{F89FAF2D-1742-4283-A705-02FFC26C08D2}" name="ARG" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{9515765D-BE38-48F3-BA53-4879631C61B7}" name="ROBO" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{2FF8C322-7367-4E03-960C-A253C8911DFA}" name="INICIAL" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{BEC1921C-8AF8-4211-9E08-5F51D12113D3}" name="PRIMERA" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{B65DF93B-6A15-4B1F-B4C3-C0D0E962FD73}" name="%" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{3382FD9A-867E-4E47-B4E6-96E40255287D}" name="OBSERVACIONES" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{4CA051D4-0C3D-4EB7-9BDC-94F544F9E150}" name="OBSERVACIONES2" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{BB46B00C-B62C-44EB-AA29-92281DF2701C}" name="OBSERVACIONES3" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{427DBD74-D2F7-46F7-8C26-BDC25D91C8ED}" name="OBSERVACIONES4" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{55892806-F285-4F8D-8DC4-5C9369E1EE52}" name="SEGUNDA" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{B68FF5A2-8F1D-489F-93FC-7D4030C15D17}" name="%5" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{06A67C1D-1165-4F36-BB64-27F7173F2A7B}" name="OBSERVACIONES6" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{41FCF87E-F634-4720-A5E9-E8340155B0F6}" name="TERCERA" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{4741441D-9444-4FD7-B614-776B8727EB09}" name="%7" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{09830119-E3B5-4F05-AFC3-30D7C74B3303}" name="OBSERVACIONES8" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{F89FAF2D-1742-4283-A705-02FFC26C08D2}" name="ARG" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{9515765D-BE38-48F3-BA53-4879631C61B7}" name="ROBO" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{2FF8C322-7367-4E03-960C-A253C8911DFA}" name="INICIAL" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{BEC1921C-8AF8-4211-9E08-5F51D12113D3}" name="PRIMERA" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{B65DF93B-6A15-4B1F-B4C3-C0D0E962FD73}" name="%" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{3382FD9A-867E-4E47-B4E6-96E40255287D}" name="OBSERVACIONES" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{4CA051D4-0C3D-4EB7-9BDC-94F544F9E150}" name="OBSERVACIONES2" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{BB46B00C-B62C-44EB-AA29-92281DF2701C}" name="OBSERVACIONES3" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{427DBD74-D2F7-46F7-8C26-BDC25D91C8ED}" name="OBSERVACIONES4" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{55892806-F285-4F8D-8DC4-5C9369E1EE52}" name="SEGUNDA" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{B68FF5A2-8F1D-489F-93FC-7D4030C15D17}" name="%5" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{06A67C1D-1165-4F36-BB64-27F7173F2A7B}" name="OBSERVACIONES6" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{41FCF87E-F634-4720-A5E9-E8340155B0F6}" name="TERCERA" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{4741441D-9444-4FD7-B614-776B8727EB09}" name="%7" dataDxfId="45"/>
+    <tableColumn id="15" xr3:uid="{09830119-E3B5-4F05-AFC3-30D7C74B3303}" name="OBSERVACIONES8" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{962935FE-2BCA-4BDF-885B-A30BEC2DF7FF}" name="Tabela13" displayName="Tabela13" ref="A1:F21" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{962935FE-2BCA-4BDF-885B-A30BEC2DF7FF}" name="Tabela13" displayName="Tabela13" ref="A1:F21" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:F21" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6483B7B3-C4E3-4DA3-81DC-F0AADCA0971B}" name="ARG" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{F0C5C9D0-1359-4A6B-A0D6-B0B17B18A64C}" name="ROBO" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{63499F91-9960-496D-BD1F-D884AFE3AFF6}" name="PROGS" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{039A1B84-621F-4C0A-9A75-215694024FEF}" name="IO_SET" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{41026203-D5D9-4881-BF1C-5F8D5DAE219A}" name="MAKRO v" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{E9A37624-3D0B-42AF-8B59-896118404B07}" name="OBSERVAÇÃO EPLAN" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{6483B7B3-C4E3-4DA3-81DC-F0AADCA0971B}" name="ARG" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{F0C5C9D0-1359-4A6B-A0D6-B0B17B18A64C}" name="ROBO" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{63499F91-9960-496D-BD1F-D884AFE3AFF6}" name="PROGS" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{039A1B84-621F-4C0A-9A75-215694024FEF}" name="IO_SET" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{41026203-D5D9-4881-BF1C-5F8D5DAE219A}" name="MAKRO v" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{E9A37624-3D0B-42AF-8B59-896118404B07}" name="OBSERVAÇÃO EPLAN" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC208A4-DB55-4509-B12C-426DFF42D923}" name="Tabela145" displayName="Tabela145" ref="A1:G23" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC208A4-DB55-4509-B12C-426DFF42D923}" name="Tabela145" displayName="Tabela145" ref="A1:G23" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:G23" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{03240E0D-589F-4E49-A598-5CD966A1D22B}" name="ARG" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{7C97B5A9-350F-4C17-AE26-C78A42874E55}" name="ROBO" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{0E4DEC60-4BEA-46C1-B15D-792783C4EF82}" name="SEQ" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{9D73E8A5-41FC-4A58-98B4-803647D0CC84}" name="NOME" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{077AA374-F285-4D67-9C12-3431D47C1605}" name="PAYLOAD" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{CDE73FB8-5B7E-40BF-9408-32A9CB1909B5}" name="INDEX" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{CB04086A-B00C-4FE0-B635-F933597168BE}" name="OBSERVAÇÕES" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{03240E0D-589F-4E49-A598-5CD966A1D22B}" name="ARG" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{7C97B5A9-350F-4C17-AE26-C78A42874E55}" name="ROBO" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{0E4DEC60-4BEA-46C1-B15D-792783C4EF82}" name="SEQ" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{9D73E8A5-41FC-4A58-98B4-803647D0CC84}" name="NOME" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{077AA374-F285-4D67-9C12-3431D47C1605}" name="PAYLOAD" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{CDE73FB8-5B7E-40BF-9408-32A9CB1909B5}" name="INDEX" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{CB04086A-B00C-4FE0-B635-F933597168BE}" name="OBSERVAÇÕES" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{604E7D0C-5421-4598-905C-1BCED4731D44}" name="Tabela57" displayName="Tabela57" ref="A1:O23" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:O23" xr:uid="{1DB91509-A703-4ED1-8FAE-372FE9707ABA}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{F5623092-8624-4D0B-BC7E-8FBCF1B77CCF}" name="ARG" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{553230AB-062F-467C-8BCC-BF6098D89920}" name="ROBO" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{0DA32C3E-FF73-45E9-82E1-E33A461CBED6}" name="INICIAL" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{1B1F50E8-2EE3-439D-9498-F10394340FB6}" name="PRIMERA" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{BC93490B-6586-43B5-AF09-EFDB2B5619BB}" name="%" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{EDD03EFB-88C2-442E-9B71-346E9B2B396A}" name="OBSERVACIONES" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{F37213F6-0890-445C-A72D-2346FD89CD49}" name="OBSERVACIONES2" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{CF5AE0A6-FADF-48E4-8665-DDB85C85AB86}" name="OBSERVACIONES3" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{F23740DF-5627-46BF-B23C-31C21CDB4C29}" name="OBSERVACIONES4" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{F44247D0-D35C-4610-BA6A-7646464698DF}" name="SEGUNDA" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{A507A67A-8BBE-4C52-9BB2-EA90EA970F2C}" name="%5" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{BF0E870A-27C5-4656-81A0-B139ECF56954}" name="OBSERVACIONES6" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{74BB06D9-8942-45E5-998D-3CF662E96354}" name="TERCERA" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{64133EAA-5C16-4295-9227-D5BCF82AD93F}" name="%7" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{76A63E3D-FCFF-4E81-A28A-99DE1494B13C}" name="OBSERVACIONES8" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2195,7 +2332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A96693-D7AB-452A-9BD0-CDB963ECFEE0}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2215,7 +2352,7 @@
     <col min="15" max="15" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -3173,7 +3310,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -3687,4 +3824,643 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96334D4B-92D4-4CBC-9058-1E5C1832024E}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="33.21875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="27" style="11" customWidth="1"/>
+    <col min="10" max="11" width="24.109375" customWidth="1"/>
+    <col min="12" max="12" width="30.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="15" max="15" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/KJLTVX/Status_Robo.xlsx
+++ b/KJLTVX/Status_Robo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\VASC\KJLTVX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED52BC4-6E56-4ABE-B4D3-E4CD1F164A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2096E84C-B1BA-4C49-89DC-B4166818AC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="643" activeTab="3" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="643" firstSheet="3" activeTab="3" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
   </bookViews>
   <sheets>
     <sheet name="VASC LTVR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="OBSEVACIONES LTVL" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="87">
   <si>
     <t>1120R01</t>
   </si>
@@ -276,9 +275,6 @@
     <t>Dados não batem conforme o documento.Falta Paload com peca Tayron</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>sequencia invertida 3 ultimos pontos</t>
   </si>
   <si>
@@ -286,6 +282,24 @@
   </si>
   <si>
     <t>1350R01</t>
+  </si>
+  <si>
+    <t>FOLGE020 Coordenadas P1 , P2 e P5  Não estao iguais</t>
+  </si>
+  <si>
+    <t>FOLGE020 Coordenadas P1 , P2 e P9  Não estao iguais</t>
+  </si>
+  <si>
+    <t>FOLGE125 Coordenadas P1 e P2 Não estao iguais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apagar UP222 e UP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UP21  UP22 UP23 Vasc aponta que falta logica de interlock  porem esta declarado na M[10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UP21  UP22 UP23 Vasc aponta que falta logica de interlock  porem esta declarado na M[25]</t>
   </si>
 </sst>
 </file>
@@ -1429,17 +1443,17 @@
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1459,7 +1473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1477,7 +1491,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1497,7 +1511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1515,7 +1529,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1535,7 +1549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1555,7 +1569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1573,7 +1587,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1591,7 +1605,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1611,7 +1625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1631,7 +1645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -1649,7 +1663,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -1669,7 +1683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -1689,7 +1703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -1709,7 +1723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -1729,7 +1743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -1747,7 +1761,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -1767,7 +1781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -1785,7 +1799,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -1805,7 +1819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -1825,7 +1839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -1872,16 +1886,16 @@
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1904,7 +1918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1927,7 +1941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1950,7 +1964,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1969,7 +1983,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1988,7 +2002,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2007,7 +2021,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2026,7 +2040,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -2045,7 +2059,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2066,7 +2080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -2085,7 +2099,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -2104,7 +2118,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -2123,7 +2137,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -2142,7 +2156,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -2163,7 +2177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -2186,7 +2200,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -2205,7 +2219,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -2228,7 +2242,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -2247,7 +2261,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -2268,7 +2282,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -2287,7 +2301,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -2332,27 +2346,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A96693-D7AB-452A-9BD0-CDB963ECFEE0}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A9" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="33.21875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" style="11" customWidth="1"/>
     <col min="9" max="9" width="27" style="11" customWidth="1"/>
-    <col min="10" max="11" width="24.109375" customWidth="1"/>
-    <col min="12" max="12" width="30.88671875" customWidth="1"/>
+    <col min="10" max="11" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2399,7 +2413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2429,7 +2443,7 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2465,7 +2479,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2495,7 +2509,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2527,7 +2541,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2553,7 +2567,7 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2579,7 +2593,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -2605,7 +2619,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2635,7 +2649,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -2663,7 +2677,7 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -2689,7 +2703,7 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -2715,7 +2729,7 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -2741,7 +2755,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -2771,7 +2785,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -2801,7 +2815,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -2831,7 +2845,7 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -2865,7 +2879,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -2893,7 +2907,7 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -2925,7 +2939,7 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -2955,7 +2969,7 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -2994,21 +3008,21 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -3028,7 +3042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3042,7 +3056,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3056,7 +3070,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3070,7 +3084,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -3084,7 +3098,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -3098,7 +3112,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -3112,7 +3126,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -3126,7 +3140,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -3140,7 +3154,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -3154,7 +3168,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -3168,122 +3182,142 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
@@ -3310,22 +3344,22 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -3348,7 +3382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3361,15 +3395,13 @@
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3382,15 +3414,13 @@
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3403,15 +3433,13 @@
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -3424,15 +3452,13 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -3445,15 +3471,13 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -3466,15 +3490,13 @@
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -3487,15 +3509,13 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -3503,25 +3523,23 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -3537,12 +3555,12 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -3550,15 +3568,13 @@
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -3571,15 +3587,13 @@
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -3592,15 +3606,13 @@
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -3613,15 +3625,13 @@
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -3629,20 +3639,20 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -3653,19 +3663,19 @@
         <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -3673,20 +3683,18 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -3694,20 +3702,18 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -3715,10 +3721,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>36</v>
@@ -3728,7 +3734,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -3736,20 +3742,18 @@
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -3757,20 +3761,18 @@
         <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4</v>
       </c>
@@ -3778,30 +3780,34 @@
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
   </sheetData>
@@ -3830,27 +3836,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96334D4B-92D4-4CBC-9058-1E5C1832024E}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A16" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="33.21875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" style="11" customWidth="1"/>
     <col min="9" max="9" width="27" style="11" customWidth="1"/>
-    <col min="10" max="11" width="24.109375" customWidth="1"/>
-    <col min="12" max="12" width="30.88671875" customWidth="1"/>
+    <col min="10" max="11" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3911,7 +3917,9 @@
         <v>20</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -3923,7 +3931,7 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3937,7 +3945,9 @@
         <v>20</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -3949,7 +3959,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3963,7 +3973,9 @@
         <v>20</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -3975,7 +3987,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -3989,7 +4001,9 @@
         <v>20</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -4001,7 +4015,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -4015,7 +4029,9 @@
         <v>20</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -4027,7 +4043,7 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -4041,7 +4057,9 @@
         <v>20</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4053,7 +4071,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -4067,7 +4085,9 @@
         <v>20</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -4079,7 +4099,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -4093,7 +4113,9 @@
         <v>20</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -4105,16 +4127,20 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="8"/>
@@ -4125,15 +4151,17 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -4145,7 +4173,7 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -4159,8 +4187,12 @@
         <v>20</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="8"/>
@@ -4171,7 +4203,7 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -4185,7 +4217,9 @@
         <v>20</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -4197,7 +4231,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -4211,8 +4245,12 @@
         <v>20</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="8"/>
@@ -4223,7 +4261,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -4237,9 +4275,15 @@
         <v>20</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -4249,7 +4293,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -4263,7 +4307,9 @@
         <v>20</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -4275,7 +4321,7 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -4289,7 +4335,9 @@
         <v>20</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -4301,7 +4349,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -4327,7 +4375,7 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -4341,7 +4389,9 @@
         <v>20</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -4353,7 +4403,7 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -4367,8 +4417,12 @@
         <v>20</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="8"/>
@@ -4379,7 +4433,7 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -4393,7 +4447,9 @@
         <v>20</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -4405,7 +4461,7 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4</v>
       </c>
@@ -4419,7 +4475,9 @@
         <v>20</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -4431,7 +4489,7 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -4445,8 +4503,12 @@
         <v>20</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="8"/>

--- a/KJLTVX/Status_Robo.xlsx
+++ b/KJLTVX/Status_Robo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\VASC\KJLTVX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2096E84C-B1BA-4C49-89DC-B4166818AC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B66E08-5E0D-4843-878A-A5EC6710E501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="643" firstSheet="3" activeTab="3" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="643" activeTab="5" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
   </bookViews>
   <sheets>
     <sheet name="VASC LTVR" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="88">
   <si>
     <t>1120R01</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t xml:space="preserve"> UP21  UP22 UP23 Vasc aponta que falta logica de interlock  porem esta declarado na M[25]</t>
+  </si>
+  <si>
+    <t>MAKRO 020, 080, 342 Y 343 CON PUENTE</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1442,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1882,8 +1885,8 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A96693-D7AB-452A-9BD0-CDB963ECFEE0}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69781F33-9E6B-4734-B4C4-5473A1EC001A}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -3344,7 +3347,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -3836,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96334D4B-92D4-4CBC-9058-1E5C1832024E}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,7 +3923,9 @@
       <c r="F2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="8"/>

--- a/KJLTVX/Status_Robo.xlsx
+++ b/KJLTVX/Status_Robo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\VASC\KJLTVX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B66E08-5E0D-4843-878A-A5EC6710E501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84D1FA-1CD5-4111-884A-040CF3602F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="643" activeTab="5" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="643" activeTab="3" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
   </bookViews>
   <sheets>
     <sheet name="VASC LTVR" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="88">
   <si>
     <t>1120R01</t>
   </si>
@@ -1443,7 +1443,7 @@
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2350,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3010,9 +3010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69781F33-9E6B-4734-B4C4-5473A1EC001A}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3055,8 +3055,12 @@
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3069,8 +3073,12 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3083,8 +3091,12 @@
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,8 +3109,12 @@
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3111,8 +3127,12 @@
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,8 +3145,12 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3139,8 +3163,12 @@
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3153,8 +3181,12 @@
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3167,8 +3199,12 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3181,8 +3217,12 @@
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3195,8 +3235,12 @@
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3209,8 +3253,12 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3223,8 +3271,12 @@
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3237,8 +3289,12 @@
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3251,8 +3307,12 @@
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3265,8 +3325,12 @@
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3279,8 +3343,12 @@
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3293,8 +3361,12 @@
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3307,8 +3379,12 @@
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3321,8 +3397,12 @@
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F21" s="3"/>
     </row>
   </sheetData>
@@ -3839,7 +3919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96334D4B-92D4-4CBC-9058-1E5C1832024E}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/KJLTVX/Status_Robo.xlsx
+++ b/KJLTVX/Status_Robo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\VASC\KJLTVX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84D1FA-1CD5-4111-884A-040CF3602F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FC9933-08A3-4B4D-B3AD-8F26BEF5FC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="643" activeTab="3" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="89">
   <si>
     <t>1120R01</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>MAKRO 020, 080, 342 Y 343 CON PUENTE</t>
+  </si>
+  <si>
+    <t>1350R1</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,6 +421,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,8 +1094,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{962935FE-2BCA-4BDF-885B-A30BEC2DF7FF}" name="Tabela13" displayName="Tabela13" ref="A1:F21" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:F21" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{962935FE-2BCA-4BDF-885B-A30BEC2DF7FF}" name="Tabela13" displayName="Tabela13" ref="A1:F23" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:F23" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6483B7B3-C4E3-4DA3-81DC-F0AADCA0971B}" name="ARG" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{F0C5C9D0-1359-4A6B-A0D6-B0B17B18A64C}" name="ROBO" dataDxfId="40"/>
@@ -3008,11 +3014,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69781F33-9E6B-4734-B4C4-5473A1EC001A}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,7 +3065,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -3077,7 +3083,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -3095,7 +3101,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -3113,7 +3119,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -3194,9 +3200,9 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3212,17 +3218,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3230,17 +3232,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3248,32 +3246,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
@@ -3281,35 +3275,31 @@
     </row>
     <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
@@ -3320,14 +3310,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
@@ -3338,14 +3326,12 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
@@ -3356,14 +3342,12 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
@@ -3374,14 +3358,12 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
@@ -3392,21 +3374,51 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="3"/>
     </row>
+    <row r="22" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:E21">
+  <conditionalFormatting sqref="C2:E23">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>

--- a/KJLTVX/Status_Robo.xlsx
+++ b/KJLTVX/Status_Robo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\VASC\KJLTVX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FC9933-08A3-4B4D-B3AD-8F26BEF5FC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9AD49-8110-4163-8A6C-E31F14A2C148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="643" activeTab="3" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="643" activeTab="5" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
   </bookViews>
   <sheets>
     <sheet name="VASC LTVR" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="92">
   <si>
     <t>1120R01</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t>1350R1</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>MAKRO  342 CON PUENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKROSTP diferente da versao </t>
   </si>
 </sst>
 </file>
@@ -3016,7 +3025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69781F33-9E6B-4734-B4C4-5473A1EC001A}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
@@ -3203,7 +3212,7 @@
         <v>79</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -3931,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96334D4B-92D4-4CBC-9058-1E5C1832024E}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4045,7 +4054,9 @@
       <c r="F3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="8"/>
@@ -4073,7 +4084,9 @@
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="8"/>

--- a/KJLTVX/Status_Robo.xlsx
+++ b/KJLTVX/Status_Robo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\VASC\KJLTVX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9AD49-8110-4163-8A6C-E31F14A2C148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E578C5-9F29-47AA-A80A-6C4CF0F80236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="643" activeTab="5" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="643" activeTab="1" xr2:uid="{0C1DAE24-9B55-4BD7-B91B-81DE79BE140C}"/>
   </bookViews>
   <sheets>
     <sheet name="VASC LTVR" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="94">
   <si>
     <t>1120R01</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t xml:space="preserve">MAKROSTP diferente da versao </t>
+  </si>
+  <si>
+    <t>Tempo de Ciclo</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="87">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -464,8 +484,7 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor rgb="FFFFFF00"/>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -490,6 +509,51 @@
       <fill>
         <patternFill patternType="mediumGray">
           <fgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -666,6 +730,25 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -910,6 +993,25 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1048,110 +1150,112 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}" name="Tabela1" displayName="Tabela1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}" name="Tabela1" displayName="Tabela1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="A1:F21" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{37ECE432-7CA2-48E4-BC6A-5B2B49B3D1BC}" name="ARG" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{E6F5144E-C22B-454B-902D-C4FD0AC342B8}" name="ROBO" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{981FD75A-BE63-4427-9C8A-94E64AF6DF35}" name="PROGS" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{1190B228-C243-4A53-8C64-BF83CD52381D}" name="IO_SET" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{03CA3001-5626-45D7-A33B-FA07A35A8FB1}" name="MAKRO v" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{6FDE055E-E2B3-4815-A2C5-AF712D2A5056}" name="OBSERVAÇÃO EPLAN" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{37ECE432-7CA2-48E4-BC6A-5B2B49B3D1BC}" name="ARG" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{E6F5144E-C22B-454B-902D-C4FD0AC342B8}" name="ROBO" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{981FD75A-BE63-4427-9C8A-94E64AF6DF35}" name="PROGS" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{1190B228-C243-4A53-8C64-BF83CD52381D}" name="IO_SET" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{03CA3001-5626-45D7-A33B-FA07A35A8FB1}" name="MAKRO v" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{6FDE055E-E2B3-4815-A2C5-AF712D2A5056}" name="OBSERVAÇÃO EPLAN" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF3A4A7F-3117-442A-8E79-34DDB75C5F1B}" name="Tabela14" displayName="Tabela14" ref="A1:G21" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
-  <autoFilter ref="A1:G21" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5F55735B-C01E-41BA-9BD1-9650622D1C79}" name="ARG" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{A16874D2-DB50-410E-80DE-953BC5F9FC9B}" name="ROBO" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{9458DFB9-B371-4C60-B4C9-C20211D2FC99}" name="SEQ" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{758588EA-4714-49C6-9A3F-F785D5D42FF9}" name="NOME" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{EFA1AAE5-0EDE-4A1F-BF62-6FA99E079EC2}" name="PAYLOAD" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{2E4E679D-67E0-43EE-AD73-E6AEE0CD58CA}" name="INDEX" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{DC507381-E362-4734-8CE5-A26FE4192F97}" name="OBSERVAÇÕES" dataDxfId="61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF3A4A7F-3117-442A-8E79-34DDB75C5F1B}" name="Tabela14" displayName="Tabela14" ref="A1:H21" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="A1:H21" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5F55735B-C01E-41BA-9BD1-9650622D1C79}" name="ARG" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{A16874D2-DB50-410E-80DE-953BC5F9FC9B}" name="ROBO" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{9458DFB9-B371-4C60-B4C9-C20211D2FC99}" name="SEQ" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{758588EA-4714-49C6-9A3F-F785D5D42FF9}" name="NOME" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{EFA1AAE5-0EDE-4A1F-BF62-6FA99E079EC2}" name="PAYLOAD" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{2E4E679D-67E0-43EE-AD73-E6AEE0CD58CA}" name="INDEX" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{F64992CB-2024-4B81-B471-D969F3BE7EC4}" name="Tempo de Ciclo" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{DC507381-E362-4734-8CE5-A26FE4192F97}" name="OBSERVAÇÕES" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1DB91509-A703-4ED1-8FAE-372FE9707ABA}" name="Tabela5" displayName="Tabela5" ref="A1:O21" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1DB91509-A703-4ED1-8FAE-372FE9707ABA}" name="Tabela5" displayName="Tabela5" ref="A1:O21" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:O21" xr:uid="{1DB91509-A703-4ED1-8FAE-372FE9707ABA}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{F89FAF2D-1742-4283-A705-02FFC26C08D2}" name="ARG" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{9515765D-BE38-48F3-BA53-4879631C61B7}" name="ROBO" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{2FF8C322-7367-4E03-960C-A253C8911DFA}" name="INICIAL" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{BEC1921C-8AF8-4211-9E08-5F51D12113D3}" name="PRIMERA" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{B65DF93B-6A15-4B1F-B4C3-C0D0E962FD73}" name="%" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{3382FD9A-867E-4E47-B4E6-96E40255287D}" name="OBSERVACIONES" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{4CA051D4-0C3D-4EB7-9BDC-94F544F9E150}" name="OBSERVACIONES2" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{BB46B00C-B62C-44EB-AA29-92281DF2701C}" name="OBSERVACIONES3" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{427DBD74-D2F7-46F7-8C26-BDC25D91C8ED}" name="OBSERVACIONES4" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{55892806-F285-4F8D-8DC4-5C9369E1EE52}" name="SEGUNDA" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{B68FF5A2-8F1D-489F-93FC-7D4030C15D17}" name="%5" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{06A67C1D-1165-4F36-BB64-27F7173F2A7B}" name="OBSERVACIONES6" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{41FCF87E-F634-4720-A5E9-E8340155B0F6}" name="TERCERA" dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{4741441D-9444-4FD7-B614-776B8727EB09}" name="%7" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{09830119-E3B5-4F05-AFC3-30D7C74B3303}" name="OBSERVACIONES8" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{F89FAF2D-1742-4283-A705-02FFC26C08D2}" name="ARG" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{9515765D-BE38-48F3-BA53-4879631C61B7}" name="ROBO" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{2FF8C322-7367-4E03-960C-A253C8911DFA}" name="INICIAL" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{BEC1921C-8AF8-4211-9E08-5F51D12113D3}" name="PRIMERA" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{B65DF93B-6A15-4B1F-B4C3-C0D0E962FD73}" name="%" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{3382FD9A-867E-4E47-B4E6-96E40255287D}" name="OBSERVACIONES" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{4CA051D4-0C3D-4EB7-9BDC-94F544F9E150}" name="OBSERVACIONES2" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{BB46B00C-B62C-44EB-AA29-92281DF2701C}" name="OBSERVACIONES3" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{427DBD74-D2F7-46F7-8C26-BDC25D91C8ED}" name="OBSERVACIONES4" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{55892806-F285-4F8D-8DC4-5C9369E1EE52}" name="SEGUNDA" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{B68FF5A2-8F1D-489F-93FC-7D4030C15D17}" name="%5" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{06A67C1D-1165-4F36-BB64-27F7173F2A7B}" name="OBSERVACIONES6" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{41FCF87E-F634-4720-A5E9-E8340155B0F6}" name="TERCERA" dataDxfId="54"/>
+    <tableColumn id="14" xr3:uid="{4741441D-9444-4FD7-B614-776B8727EB09}" name="%7" dataDxfId="53"/>
+    <tableColumn id="15" xr3:uid="{09830119-E3B5-4F05-AFC3-30D7C74B3303}" name="OBSERVACIONES8" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{962935FE-2BCA-4BDF-885B-A30BEC2DF7FF}" name="Tabela13" displayName="Tabela13" ref="A1:F23" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{962935FE-2BCA-4BDF-885B-A30BEC2DF7FF}" name="Tabela13" displayName="Tabela13" ref="A1:F23" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A1:F23" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6483B7B3-C4E3-4DA3-81DC-F0AADCA0971B}" name="ARG" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{F0C5C9D0-1359-4A6B-A0D6-B0B17B18A64C}" name="ROBO" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{63499F91-9960-496D-BD1F-D884AFE3AFF6}" name="PROGS" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{039A1B84-621F-4C0A-9A75-215694024FEF}" name="IO_SET" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{41026203-D5D9-4881-BF1C-5F8D5DAE219A}" name="MAKRO v" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{E9A37624-3D0B-42AF-8B59-896118404B07}" name="OBSERVAÇÃO EPLAN" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{6483B7B3-C4E3-4DA3-81DC-F0AADCA0971B}" name="ARG" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{F0C5C9D0-1359-4A6B-A0D6-B0B17B18A64C}" name="ROBO" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{63499F91-9960-496D-BD1F-D884AFE3AFF6}" name="PROGS" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{039A1B84-621F-4C0A-9A75-215694024FEF}" name="IO_SET" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{41026203-D5D9-4881-BF1C-5F8D5DAE219A}" name="MAKRO v" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{E9A37624-3D0B-42AF-8B59-896118404B07}" name="OBSERVAÇÃO EPLAN" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC208A4-DB55-4509-B12C-426DFF42D923}" name="Tabela145" displayName="Tabela145" ref="A1:G23" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:G23" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{03240E0D-589F-4E49-A598-5CD966A1D22B}" name="ARG" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{7C97B5A9-350F-4C17-AE26-C78A42874E55}" name="ROBO" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{0E4DEC60-4BEA-46C1-B15D-792783C4EF82}" name="SEQ" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{9D73E8A5-41FC-4A58-98B4-803647D0CC84}" name="NOME" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{077AA374-F285-4D67-9C12-3431D47C1605}" name="PAYLOAD" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{CDE73FB8-5B7E-40BF-9408-32A9CB1909B5}" name="INDEX" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{CB04086A-B00C-4FE0-B635-F933597168BE}" name="OBSERVAÇÕES" dataDxfId="27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEC208A4-DB55-4509-B12C-426DFF42D923}" name="Tabela145" displayName="Tabela145" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:H1048576" xr:uid="{2B801D95-20F9-4A1C-B33D-E688FDC55337}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{03240E0D-589F-4E49-A598-5CD966A1D22B}" name="ARG" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{7C97B5A9-350F-4C17-AE26-C78A42874E55}" name="ROBO" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{0E4DEC60-4BEA-46C1-B15D-792783C4EF82}" name="SEQ" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{9D73E8A5-41FC-4A58-98B4-803647D0CC84}" name="NOME" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{077AA374-F285-4D67-9C12-3431D47C1605}" name="PAYLOAD" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{CDE73FB8-5B7E-40BF-9408-32A9CB1909B5}" name="INDEX" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{54770633-1927-48EB-8DDB-2E7B43EF522F}" name="Tempo de Ciclo" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{CB04086A-B00C-4FE0-B635-F933597168BE}" name="OBSERVAÇÕES" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{604E7D0C-5421-4598-905C-1BCED4731D44}" name="Tabela57" displayName="Tabela57" ref="A1:O23" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{604E7D0C-5421-4598-905C-1BCED4731D44}" name="Tabela57" displayName="Tabela57" ref="A1:O23" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:O23" xr:uid="{1DB91509-A703-4ED1-8FAE-372FE9707ABA}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{F5623092-8624-4D0B-BC7E-8FBCF1B77CCF}" name="ARG" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{553230AB-062F-467C-8BCC-BF6098D89920}" name="ROBO" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{0DA32C3E-FF73-45E9-82E1-E33A461CBED6}" name="INICIAL" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{1B1F50E8-2EE3-439D-9498-F10394340FB6}" name="PRIMERA" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{BC93490B-6586-43B5-AF09-EFDB2B5619BB}" name="%" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{EDD03EFB-88C2-442E-9B71-346E9B2B396A}" name="OBSERVACIONES" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{F37213F6-0890-445C-A72D-2346FD89CD49}" name="OBSERVACIONES2" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{CF5AE0A6-FADF-48E4-8665-DDB85C85AB86}" name="OBSERVACIONES3" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{F23740DF-5627-46BF-B23C-31C21CDB4C29}" name="OBSERVACIONES4" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{F44247D0-D35C-4610-BA6A-7646464698DF}" name="SEGUNDA" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{A507A67A-8BBE-4C52-9BB2-EA90EA970F2C}" name="%5" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{BF0E870A-27C5-4656-81A0-B139ECF56954}" name="OBSERVACIONES6" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{74BB06D9-8942-45E5-998D-3CF662E96354}" name="TERCERA" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{64133EAA-5C16-4295-9227-D5BCF82AD93F}" name="%7" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{76A63E3D-FCFF-4E81-A28A-99DE1494B13C}" name="OBSERVACIONES8" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{F5623092-8624-4D0B-BC7E-8FBCF1B77CCF}" name="ARG" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{553230AB-062F-467C-8BCC-BF6098D89920}" name="ROBO" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{0DA32C3E-FF73-45E9-82E1-E33A461CBED6}" name="INICIAL" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{1B1F50E8-2EE3-439D-9498-F10394340FB6}" name="PRIMERA" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{BC93490B-6586-43B5-AF09-EFDB2B5619BB}" name="%" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{EDD03EFB-88C2-442E-9B71-346E9B2B396A}" name="OBSERVACIONES" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{F37213F6-0890-445C-A72D-2346FD89CD49}" name="OBSERVACIONES2" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{CF5AE0A6-FADF-48E4-8665-DDB85C85AB86}" name="OBSERVACIONES3" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{F23740DF-5627-46BF-B23C-31C21CDB4C29}" name="OBSERVACIONES4" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{F44247D0-D35C-4610-BA6A-7646464698DF}" name="SEGUNDA" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{A507A67A-8BBE-4C52-9BB2-EA90EA970F2C}" name="%5" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{BF0E870A-27C5-4656-81A0-B139ECF56954}" name="OBSERVACIONES6" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{74BB06D9-8942-45E5-998D-3CF662E96354}" name="TERCERA" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{64133EAA-5C16-4295-9227-D5BCF82AD93F}" name="%7" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{76A63E3D-FCFF-4E81-A28A-99DE1494B13C}" name="OBSERVACIONES8" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1880,10 +1984,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:E21">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1897,11 +2001,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF06A8A-AA51-49C5-A816-0CCBC21524A2}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,10 +2014,11 @@
     <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
     <col min="4" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1933,10 +2038,13 @@
         <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1955,11 +2063,14 @@
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2">
+        <v>87.7</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1978,11 +2089,14 @@
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2">
+        <v>85.16</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1999,9 +2113,12 @@
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2018,9 +2135,12 @@
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2037,9 +2157,12 @@
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>84.3</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2056,9 +2179,12 @@
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -2075,9 +2201,12 @@
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>108.5</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2094,11 +2223,14 @@
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2">
+        <v>82.3</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -2115,9 +2247,12 @@
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <v>83.1</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -2134,9 +2269,12 @@
       <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -2153,9 +2291,12 @@
       <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>57.1</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -2172,9 +2313,12 @@
       <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>72</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -2191,11 +2335,14 @@
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2">
+        <v>70</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -2214,11 +2361,14 @@
       <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -2235,9 +2385,12 @@
       <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -2256,11 +2409,14 @@
       <c r="F17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2">
+        <v>82.7</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -2277,9 +2433,12 @@
       <c r="F18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="2">
+        <v>31.6</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -2296,11 +2455,14 @@
       <c r="F19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -2317,9 +2479,12 @@
       <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <v>64.8</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -2336,20 +2501,32 @@
       <c r="F21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2">
+        <v>61</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:F21">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="NA">
+  <conditionalFormatting sqref="C2:G21">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"NOK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G1048576">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+      <formula>68</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+      <formula>1</formula>
+      <formula>68</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3428,10 +3605,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:E23">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3445,25 +3622,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198C43F8-B65B-4687-93F5-7F1509493D86}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -3483,10 +3660,13 @@
         <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3499,13 +3679,14 @@
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3518,13 +3699,14 @@
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3537,13 +3719,14 @@
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <v>25.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -3556,13 +3739,14 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -3575,13 +3759,14 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -3594,13 +3779,14 @@
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -3613,13 +3799,14 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -3632,13 +3819,14 @@
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="2">
+        <v>38.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -3657,9 +3845,11 @@
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -3672,13 +3862,14 @@
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -3691,13 +3882,14 @@
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -3710,13 +3902,17 @@
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -3729,13 +3925,14 @@
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -3754,9 +3951,11 @@
       <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -3775,7 +3974,10 @@
       <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2">
+        <v>52.1</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3792,11 +3994,12 @@
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="2">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -3811,11 +4014,12 @@
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="2">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -3836,7 +4040,9 @@
       <c r="F19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="2">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -3851,11 +4057,12 @@
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="2">
+        <v>24.9</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -3870,11 +4077,12 @@
       <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="2">
+        <v>59.9</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -3889,11 +4097,12 @@
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="1">
+        <v>56.8</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -3908,24 +4117,45 @@
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="1">
+        <v>60.9</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:F1048576">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:F23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="C2:F1048576">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"NOK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G21">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>68</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+      <formula>1</formula>
+      <formula>68</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3940,7 +4170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96334D4B-92D4-4CBC-9058-1E5C1832024E}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
